--- a/Week4/Output/costspremiumspmm.xlsx
+++ b/Week4/Output/costspremiumspmm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>State</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Std</t>
   </si>
 </sst>
 </file>
@@ -546,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C70BB1C-232C-421A-AEE0-EB1FD6677471}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1727,6 +1739,122 @@
         <v>-73.272143172900002</v>
       </c>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <f>AVERAGE(B2:B51)</f>
+        <v>309.66482623513997</v>
+      </c>
+      <c r="C53">
+        <f>AVERAGE(C2:C51)</f>
+        <v>327.90224624991998</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:G53" si="0">AVERAGE(D2:D51)</f>
+        <v>-18.164351466197395</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>343.55980305552009</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>384.78792689069991</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>-41.228032248573946</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <f>MIN(B2:B51)</f>
+        <v>183.20013122399999</v>
+      </c>
+      <c r="C54">
+        <f>MIN(C2:C51)</f>
+        <v>182.65659475999999</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:G54" si="1">MIN(D2:D51)</f>
+        <v>-139.07258288599999</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>218.11882697799999</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>297.96023042100001</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>-241.940667115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <f>MAX(B2:B51)</f>
+        <v>449.48746251799997</v>
+      </c>
+      <c r="C55">
+        <f>MAX(C2:C51)</f>
+        <v>567.62255638700003</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:G55" si="2">MAX(D2:D51)</f>
+        <v>81.5967774418</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>562.14264026800004</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>804.08330738300003</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>66.938156266500002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <f>_xlfn.STDEV.S(B2:B51)</f>
+        <v>57.945371699365339</v>
+      </c>
+      <c r="C56">
+        <f>_xlfn.STDEV.S(C2:C51)</f>
+        <v>66.162711483463909</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:G56" si="3">_xlfn.STDEV.S(D2:D51)</f>
+        <v>43.757279568354562</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>59.949956961974706</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>82.49095702053441</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>55.216985912945077</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
